--- a/import/LangGeneral.xlsx
+++ b/import/LangGeneral.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LangGeneral" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">LangGeneral!$A$3:$D$762</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">General!$A$3:$D$765</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,10 +52,28 @@
     <t xml:space="preserve">You've earned the resentment of #1.</t>
   </si>
   <si>
-    <t xml:space="preserve">byakko_mod_progress_dungeon_attack</t>
+    <t xml:space="preserve">byakko_mod_progress_timer</t>
   </si>
   <si>
     <t xml:space="preserve">quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残り時間: #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Remain: #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byakko_mod_progress_crim_produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリムの粉の納入: #1 / #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce Crim powder: #1 of #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byakko_mod_progress_dungeon_attack</t>
   </si>
   <si>
     <t xml:space="preserve">ネフィアをどれか一つ攻略する</t>
@@ -498,6 +516,42 @@
   <si>
     <t xml:space="preserve">Attach sales tag to slave
 and record #2orens in sales (#1 / #2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">byakko_mod_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">crim_produce</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;color=#A5FFEF&gt;納入したクリムの粉: #2 / #3　#1&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;color=#A5FFEF&gt;Produced Crim powder: #2 / #3　#1&lt;/color&gt;</t>
   </si>
   <si>
     <r>
@@ -1135,7 +1189,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XDU762"/>
+  <dimension ref="A1:XFD765"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1306,6 +1360,41 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
+      <c r="XDV5" s="0"/>
+      <c r="XDW5" s="0"/>
+      <c r="XDX5" s="0"/>
+      <c r="XDY5" s="0"/>
+      <c r="XDZ5" s="0"/>
+      <c r="XEA5" s="0"/>
+      <c r="XEB5" s="0"/>
+      <c r="XEC5" s="0"/>
+      <c r="XED5" s="0"/>
+      <c r="XEE5" s="0"/>
+      <c r="XEF5" s="0"/>
+      <c r="XEG5" s="0"/>
+      <c r="XEH5" s="0"/>
+      <c r="XEI5" s="0"/>
+      <c r="XEJ5" s="0"/>
+      <c r="XEK5" s="0"/>
+      <c r="XEL5" s="0"/>
+      <c r="XEM5" s="0"/>
+      <c r="XEN5" s="0"/>
+      <c r="XEO5" s="0"/>
+      <c r="XEP5" s="0"/>
+      <c r="XEQ5" s="0"/>
+      <c r="XER5" s="0"/>
+      <c r="XES5" s="0"/>
+      <c r="XET5" s="0"/>
+      <c r="XEU5" s="0"/>
+      <c r="XEV5" s="0"/>
+      <c r="XEW5" s="0"/>
+      <c r="XEX5" s="0"/>
+      <c r="XEY5" s="0"/>
+      <c r="XEZ5" s="0"/>
+      <c r="XFA5" s="0"/>
+      <c r="XFB5" s="0"/>
+      <c r="XFC5" s="0"/>
+      <c r="XFD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -1317,7 +1406,7 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
@@ -1350,7 +1439,7 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
@@ -1374,16 +1463,16 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
@@ -1406,17 +1495,17 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6"/>
@@ -1439,7 +1528,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1601,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1538,17 +1627,17 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="6"/>
@@ -1572,16 +1661,16 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="6"/>
@@ -1604,7 +1693,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1637,14 +1726,14 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1670,14 +1759,14 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1736,17 +1825,17 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="6"/>
@@ -1769,17 +1858,17 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="6"/>
@@ -1803,50 +1892,50 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1869,17 +1958,17 @@
       <c r="W22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1902,44 +1991,44 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>72</v>
@@ -1968,11 +2057,11 @@
       <c r="W25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>75</v>
@@ -2001,10 +2090,18 @@
       <c r="W26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2025,85 +2122,101 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2125,84 +2238,84 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="18"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="6"/>
@@ -2228,7 +2341,7 @@
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="4"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2252,7 +2365,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="6"/>
@@ -2277,78 +2390,78 @@
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
@@ -2400,55 +2513,55 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
@@ -2480,100 +2593,100 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
@@ -2605,50 +2718,50 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="18"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
@@ -2677,83 +2790,83 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="4"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3027,7 +3140,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="6"/>
@@ -3052,78 +3165,78 @@
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="18"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -3152,7 +3265,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3202,7 +3315,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3227,7 +3340,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3252,7 +3365,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3353,7 +3466,7 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="18"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3428,7 +3541,7 @@
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3677,7 +3790,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
-      <c r="B94" s="18"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3752,7 +3865,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3777,7 +3890,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
-      <c r="B98" s="18"/>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3800,9 +3913,9 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
-      <c r="B99" s="18"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3825,9 +3938,9 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
-      <c r="B100" s="18"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3850,7 +3963,7 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="18"/>
       <c r="C101" s="4"/>
@@ -4052,7 +4165,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4127,7 +4240,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4152,7 +4265,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4177,7 +4290,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4202,7 +4315,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4425,7 +4538,7 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4450,7 +4563,7 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4475,7 +4588,7 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4502,7 +4615,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4527,7 +4640,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4627,7 +4740,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -4727,7 +4840,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4802,7 +4915,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4927,7 +5040,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -4952,7 +5065,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -4977,7 +5090,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -5603,7 +5716,7 @@
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -5628,7 +5741,7 @@
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="3"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -5653,7 +5766,7 @@
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -5728,7 +5841,7 @@
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="3"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -5753,7 +5866,7 @@
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="C177" s="3"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -5778,7 +5891,7 @@
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="C178" s="3"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -6052,7 +6165,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -6127,7 +6240,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -6202,7 +6315,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -6227,7 +6340,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -6252,7 +6365,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -6277,7 +6390,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -6302,7 +6415,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -6327,7 +6440,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -7578,7 +7691,7 @@
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="3"/>
+      <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -7603,7 +7716,7 @@
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="3"/>
+      <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -7653,7 +7766,7 @@
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="C253" s="3"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -7678,7 +7791,7 @@
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="C254" s="3"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -12575,7 +12688,7 @@
       <c r="V449" s="4"/>
       <c r="W449" s="4"/>
     </row>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -12600,7 +12713,7 @@
       <c r="V450" s="4"/>
       <c r="W450" s="4"/>
     </row>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -12625,7 +12738,7 @@
       <c r="V451" s="4"/>
       <c r="W451" s="4"/>
     </row>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -12651,7 +12764,7 @@
       <c r="W452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="4"/>
+      <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -12726,7 +12839,7 @@
       <c r="W455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="3"/>
+      <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -13075,7 +13188,7 @@
       <c r="V469" s="4"/>
       <c r="W469" s="4"/>
     </row>
-    <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -13100,7 +13213,7 @@
       <c r="V470" s="4"/>
       <c r="W470" s="4"/>
     </row>
-    <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -13125,7 +13238,7 @@
       <c r="V471" s="4"/>
       <c r="W471" s="4"/>
     </row>
-    <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -14450,7 +14563,7 @@
       <c r="V524" s="4"/>
       <c r="W524" s="4"/>
     </row>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -14475,7 +14588,7 @@
       <c r="V525" s="4"/>
       <c r="W525" s="4"/>
     </row>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -14500,7 +14613,7 @@
       <c r="V526" s="4"/>
       <c r="W526" s="4"/>
     </row>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -14650,7 +14763,7 @@
       <c r="V532" s="4"/>
       <c r="W532" s="4"/>
     </row>
-    <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -14725,7 +14838,7 @@
       <c r="V535" s="4"/>
       <c r="W535" s="4"/>
     </row>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -15125,7 +15238,7 @@
       <c r="V551" s="4"/>
       <c r="W551" s="4"/>
     </row>
-    <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -15150,7 +15263,7 @@
       <c r="V552" s="4"/>
       <c r="W552" s="4"/>
     </row>
-    <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -15175,7 +15288,7 @@
       <c r="V553" s="4"/>
       <c r="W553" s="4"/>
     </row>
-    <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -15601,7 +15714,7 @@
       <c r="W570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="20"/>
+      <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -15626,7 +15739,7 @@
       <c r="W571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="20"/>
+      <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -15676,7 +15789,7 @@
       <c r="W573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="3"/>
+      <c r="A574" s="20"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -15701,7 +15814,7 @@
       <c r="W574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="3"/>
+      <c r="A575" s="20"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -16225,7 +16338,7 @@
       <c r="V595" s="4"/>
       <c r="W595" s="4"/>
     </row>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -16250,7 +16363,7 @@
       <c r="V596" s="4"/>
       <c r="W596" s="4"/>
     </row>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -16275,7 +16388,7 @@
       <c r="V597" s="4"/>
       <c r="W597" s="4"/>
     </row>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -16650,7 +16763,7 @@
       <c r="V612" s="4"/>
       <c r="W612" s="4"/>
     </row>
-    <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -16675,7 +16788,7 @@
       <c r="V613" s="4"/>
       <c r="W613" s="4"/>
     </row>
-    <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -16700,7 +16813,7 @@
       <c r="V614" s="4"/>
       <c r="W614" s="4"/>
     </row>
-    <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -16800,9 +16913,9 @@
       <c r="V618" s="4"/>
       <c r="W618" s="4"/>
     </row>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
-      <c r="B619" s="18"/>
+      <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -16875,9 +16988,9 @@
       <c r="V621" s="4"/>
       <c r="W621" s="4"/>
     </row>
-    <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
-      <c r="B622" s="4"/>
+      <c r="B622" s="18"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18002,7 +18115,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
-      <c r="B667" s="15"/>
+      <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -18027,7 +18140,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
-      <c r="B668" s="21"/>
+      <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -18077,7 +18190,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
-      <c r="B670" s="4"/>
+      <c r="B670" s="15"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -18102,7 +18215,7 @@
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
-      <c r="B671" s="4"/>
+      <c r="B671" s="21"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -18951,7 +19064,7 @@
       <c r="W704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A705" s="22"/>
+      <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -19026,7 +19139,7 @@
       <c r="W707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A708" s="3"/>
+      <c r="A708" s="22"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -19903,7 +20016,7 @@
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
       <c r="B743" s="4"/>
-      <c r="C743" s="3"/>
+      <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
@@ -19978,7 +20091,7 @@
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
       <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
+      <c r="C746" s="3"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
@@ -20400,8 +20513,83 @@
       <c r="V762" s="4"/>
       <c r="W762" s="4"/>
     </row>
+    <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A763" s="3"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="4"/>
+      <c r="D763" s="4"/>
+      <c r="E763" s="4"/>
+      <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
+      <c r="H763" s="4"/>
+      <c r="I763" s="4"/>
+      <c r="J763" s="4"/>
+      <c r="K763" s="4"/>
+      <c r="L763" s="4"/>
+      <c r="M763" s="4"/>
+      <c r="N763" s="4"/>
+      <c r="O763" s="4"/>
+      <c r="P763" s="4"/>
+      <c r="Q763" s="4"/>
+      <c r="R763" s="4"/>
+      <c r="S763" s="4"/>
+      <c r="T763" s="4"/>
+      <c r="U763" s="4"/>
+      <c r="V763" s="4"/>
+      <c r="W763" s="4"/>
+    </row>
+    <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A764" s="3"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="4"/>
+      <c r="D764" s="4"/>
+      <c r="E764" s="4"/>
+      <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
+      <c r="H764" s="4"/>
+      <c r="I764" s="4"/>
+      <c r="J764" s="4"/>
+      <c r="K764" s="4"/>
+      <c r="L764" s="4"/>
+      <c r="M764" s="4"/>
+      <c r="N764" s="4"/>
+      <c r="O764" s="4"/>
+      <c r="P764" s="4"/>
+      <c r="Q764" s="4"/>
+      <c r="R764" s="4"/>
+      <c r="S764" s="4"/>
+      <c r="T764" s="4"/>
+      <c r="U764" s="4"/>
+      <c r="V764" s="4"/>
+      <c r="W764" s="4"/>
+    </row>
+    <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A765" s="3"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+      <c r="D765" s="4"/>
+      <c r="E765" s="4"/>
+      <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
+      <c r="H765" s="4"/>
+      <c r="I765" s="4"/>
+      <c r="J765" s="4"/>
+      <c r="K765" s="4"/>
+      <c r="L765" s="4"/>
+      <c r="M765" s="4"/>
+      <c r="N765" s="4"/>
+      <c r="O765" s="4"/>
+      <c r="P765" s="4"/>
+      <c r="Q765" s="4"/>
+      <c r="R765" s="4"/>
+      <c r="S765" s="4"/>
+      <c r="T765" s="4"/>
+      <c r="U765" s="4"/>
+      <c r="V765" s="4"/>
+      <c r="W765" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:D762"/>
+  <autoFilter ref="A3:D765"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
